--- a/结果/DT分类/标准差/DT_DE_biaozhuncha.xlsx
+++ b/结果/DT分类/标准差/DT_DE_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\DT分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E528BDD-3A89-4D45-AA2D-2F457DE5A40F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C98D690-6B04-49FD-8789-F0C39AE7F0FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="9252" yWindow="2748" windowWidth="19668" windowHeight="9708" firstSheet="2" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="DE_biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4741E87B-C3D3-4C4C-BF4E-36BCF345D7CA}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E38"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -428,6 +428,171 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>90</v>
+      </c>
+      <c r="B2">
+        <v>89.156599999999997</v>
+      </c>
+      <c r="C2">
+        <v>90.909099999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>88.125</v>
+      </c>
+      <c r="B4">
+        <v>91.358000000000004</v>
+      </c>
+      <c r="C4">
+        <v>84.810100000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>91.875</v>
+      </c>
+      <c r="B6">
+        <v>92.941199999999995</v>
+      </c>
+      <c r="C6">
+        <v>90.666700000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>88.125</v>
+      </c>
+      <c r="B8">
+        <v>88.235299999999995</v>
+      </c>
+      <c r="C8">
+        <v>88.043499999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>88.125</v>
+      </c>
+      <c r="B10">
+        <v>92.771100000000004</v>
+      </c>
+      <c r="C10">
+        <v>83.116900000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>89.375</v>
+      </c>
+      <c r="B15">
+        <v>88.095200000000006</v>
+      </c>
+      <c r="C15">
+        <v>90.789500000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>89.375</v>
+      </c>
+      <c r="B17">
+        <v>93.333299999999994</v>
+      </c>
+      <c r="C17">
+        <v>85.882400000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>88.125</v>
+      </c>
+      <c r="B19">
+        <v>87.179500000000004</v>
+      </c>
+      <c r="C19">
+        <v>89.0244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>90.625</v>
+      </c>
+      <c r="B21">
+        <v>91.463399999999993</v>
+      </c>
+      <c r="C21">
+        <v>89.743600000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>91.875</v>
+      </c>
+      <c r="B23">
+        <v>93.827200000000005</v>
+      </c>
+      <c r="C23">
+        <v>89.873400000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>91.25</v>
+      </c>
+      <c r="B28">
+        <v>91.780799999999999</v>
+      </c>
+      <c r="C28">
+        <v>90.804599999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>85.625</v>
+      </c>
+      <c r="B30">
+        <v>88.888900000000007</v>
+      </c>
+      <c r="C30">
+        <v>82.278499999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>88.125</v>
+      </c>
+      <c r="B32">
+        <v>87.5</v>
+      </c>
+      <c r="C32">
+        <v>88.888900000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>89.375</v>
+      </c>
+      <c r="B34">
+        <v>91.764700000000005</v>
+      </c>
+      <c r="C34">
+        <v>86.666700000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>90.625</v>
+      </c>
+      <c r="B36">
+        <v>89.0411</v>
+      </c>
+      <c r="C36">
+        <v>91.953999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -439,10 +604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CD7CAD-17A7-405B-B225-B1C1201D0FB3}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D42"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -456,6 +621,171 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>85.625</v>
+      </c>
+      <c r="B2">
+        <v>85.393299999999996</v>
+      </c>
+      <c r="C2">
+        <v>85.915499999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>79.375</v>
+      </c>
+      <c r="B4">
+        <v>82.857100000000003</v>
+      </c>
+      <c r="C4">
+        <v>76.666700000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>88.125</v>
+      </c>
+      <c r="B6">
+        <v>83.333299999999994</v>
+      </c>
+      <c r="C6">
+        <v>94.285700000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>82.5</v>
+      </c>
+      <c r="B8">
+        <v>81.818200000000004</v>
+      </c>
+      <c r="C8">
+        <v>83.132499999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>87.5</v>
+      </c>
+      <c r="B10">
+        <v>89.1892</v>
+      </c>
+      <c r="C10">
+        <v>86.046499999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>90</v>
+      </c>
+      <c r="B15">
+        <v>93.827200000000005</v>
+      </c>
+      <c r="C15">
+        <v>86.075900000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>86.875</v>
+      </c>
+      <c r="B17">
+        <v>88.235299999999995</v>
+      </c>
+      <c r="C17">
+        <v>85.333299999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>83.75</v>
+      </c>
+      <c r="B19">
+        <v>82.9268</v>
+      </c>
+      <c r="C19">
+        <v>84.615399999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>81.875</v>
+      </c>
+      <c r="B21">
+        <v>74.324299999999994</v>
+      </c>
+      <c r="C21">
+        <v>88.372100000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>85.625</v>
+      </c>
+      <c r="B23">
+        <v>89.743600000000001</v>
+      </c>
+      <c r="C23">
+        <v>81.707300000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>81.25</v>
+      </c>
+      <c r="B28">
+        <v>78.0488</v>
+      </c>
+      <c r="C28">
+        <v>84.615399999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>85</v>
+      </c>
+      <c r="B30">
+        <v>86.111099999999993</v>
+      </c>
+      <c r="C30">
+        <v>84.090900000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>89.375</v>
+      </c>
+      <c r="B32">
+        <v>90.243899999999996</v>
+      </c>
+      <c r="C32">
+        <v>88.461500000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>81.875</v>
+      </c>
+      <c r="B34">
+        <v>78.823499999999996</v>
+      </c>
+      <c r="C34">
+        <v>85.333299999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>85.625</v>
+      </c>
+      <c r="B36">
+        <v>87.341800000000006</v>
+      </c>
+      <c r="C36">
+        <v>83.950599999999994</v>
       </c>
     </row>
   </sheetData>
@@ -466,10 +796,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C4E035-F9D2-421B-B7B5-F0F10728D5DC}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C40"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -483,6 +813,171 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>94.375</v>
+      </c>
+      <c r="B2">
+        <v>97.142899999999997</v>
+      </c>
+      <c r="C2">
+        <v>92.222200000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>95.625</v>
+      </c>
+      <c r="B4">
+        <v>92.682900000000004</v>
+      </c>
+      <c r="C4">
+        <v>98.7179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>90.625</v>
+      </c>
+      <c r="B6">
+        <v>93.150700000000001</v>
+      </c>
+      <c r="C6">
+        <v>88.505700000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>90</v>
+      </c>
+      <c r="B8">
+        <v>91.111099999999993</v>
+      </c>
+      <c r="C8">
+        <v>88.571399999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>91.875</v>
+      </c>
+      <c r="B10">
+        <v>94.117599999999996</v>
+      </c>
+      <c r="C10">
+        <v>89.333299999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>95.625</v>
+      </c>
+      <c r="B15">
+        <v>98.7179</v>
+      </c>
+      <c r="C15">
+        <v>92.682900000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>95</v>
+      </c>
+      <c r="B17">
+        <v>97.530900000000003</v>
+      </c>
+      <c r="C17">
+        <v>92.405100000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>94.375</v>
+      </c>
+      <c r="B19">
+        <v>93.506500000000003</v>
+      </c>
+      <c r="C19">
+        <v>95.180700000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>89.375</v>
+      </c>
+      <c r="B21">
+        <v>86.419799999999995</v>
+      </c>
+      <c r="C21">
+        <v>92.405100000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>91.875</v>
+      </c>
+      <c r="B23">
+        <v>97.590400000000002</v>
+      </c>
+      <c r="C23">
+        <v>85.714299999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>89.375</v>
+      </c>
+      <c r="B28">
+        <v>90.243899999999996</v>
+      </c>
+      <c r="C28">
+        <v>88.461500000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>92.5</v>
+      </c>
+      <c r="B30">
+        <v>90.909099999999995</v>
+      </c>
+      <c r="C30">
+        <v>93.975899999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>96.875</v>
+      </c>
+      <c r="B32">
+        <v>97.435900000000004</v>
+      </c>
+      <c r="C32">
+        <v>96.341499999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>91.25</v>
+      </c>
+      <c r="B34">
+        <v>96.25</v>
+      </c>
+      <c r="C34">
+        <v>86.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>91.25</v>
+      </c>
+      <c r="B36">
+        <v>90.361400000000003</v>
+      </c>
+      <c r="C36">
+        <v>92.207800000000006</v>
       </c>
     </row>
   </sheetData>
@@ -493,10 +988,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7065BF2C-2190-4AC1-9863-A73DB651DEB7}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C41"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -510,6 +1005,171 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>96.25</v>
+      </c>
+      <c r="B2">
+        <v>95.402299999999997</v>
+      </c>
+      <c r="C2">
+        <v>97.260300000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>96.25</v>
+      </c>
+      <c r="B4">
+        <v>94.252899999999997</v>
+      </c>
+      <c r="C4">
+        <v>98.630099999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>95.625</v>
+      </c>
+      <c r="B6">
+        <v>93.75</v>
+      </c>
+      <c r="C6">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>91.875</v>
+      </c>
+      <c r="B8">
+        <v>92.307699999999997</v>
+      </c>
+      <c r="C8">
+        <v>91.463399999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>94.375</v>
+      </c>
+      <c r="B10">
+        <v>97.058800000000005</v>
+      </c>
+      <c r="C10">
+        <v>92.391300000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>90</v>
+      </c>
+      <c r="B15">
+        <v>91.463399999999993</v>
+      </c>
+      <c r="C15">
+        <v>88.461500000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>96.25</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>92.682900000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>96.875</v>
+      </c>
+      <c r="B19">
+        <v>95.8904</v>
+      </c>
+      <c r="C19">
+        <v>97.701099999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>91.25</v>
+      </c>
+      <c r="B21">
+        <v>88.095200000000006</v>
+      </c>
+      <c r="C21">
+        <v>94.736800000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>93.75</v>
+      </c>
+      <c r="B23">
+        <v>90.361400000000003</v>
+      </c>
+      <c r="C23">
+        <v>97.402600000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>96.875</v>
+      </c>
+      <c r="B28">
+        <v>94.936700000000002</v>
+      </c>
+      <c r="C28">
+        <v>98.7654</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>91.25</v>
+      </c>
+      <c r="B30">
+        <v>88.75</v>
+      </c>
+      <c r="C30">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>94.375</v>
+      </c>
+      <c r="B32">
+        <v>96.666700000000006</v>
+      </c>
+      <c r="C32">
+        <v>91.428600000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>93.125</v>
+      </c>
+      <c r="B34">
+        <v>89.873400000000004</v>
+      </c>
+      <c r="C34">
+        <v>96.296300000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>94.375</v>
+      </c>
+      <c r="B36">
+        <v>97.222200000000001</v>
+      </c>
+      <c r="C36">
+        <v>92.045500000000004</v>
       </c>
     </row>
   </sheetData>
@@ -520,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D226E5F6-9744-4BCE-BA8C-130D2D921F00}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D41"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -537,6 +1197,171 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>93.75</v>
+      </c>
+      <c r="B2">
+        <v>92</v>
+      </c>
+      <c r="C2">
+        <v>95.2941</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>93.75</v>
+      </c>
+      <c r="B4">
+        <v>97.530900000000003</v>
+      </c>
+      <c r="C4">
+        <v>89.873400000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>91.25</v>
+      </c>
+      <c r="B6">
+        <v>90.411000000000001</v>
+      </c>
+      <c r="C6">
+        <v>91.953999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>90</v>
+      </c>
+      <c r="B8">
+        <v>89.0411</v>
+      </c>
+      <c r="C8">
+        <v>90.804599999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>93.125</v>
+      </c>
+      <c r="B10">
+        <v>93.877600000000001</v>
+      </c>
+      <c r="C10">
+        <v>91.935500000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>92.5</v>
+      </c>
+      <c r="B15">
+        <v>91.891900000000007</v>
+      </c>
+      <c r="C15">
+        <v>93.023300000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>86.875</v>
+      </c>
+      <c r="B17">
+        <v>90.804599999999994</v>
+      </c>
+      <c r="C17">
+        <v>82.191800000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>93.125</v>
+      </c>
+      <c r="B19">
+        <v>91.139200000000002</v>
+      </c>
+      <c r="C19">
+        <v>95.061700000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>93.125</v>
+      </c>
+      <c r="B21">
+        <v>93.258399999999995</v>
+      </c>
+      <c r="C21">
+        <v>92.957700000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>96.25</v>
+      </c>
+      <c r="B23">
+        <v>97.183099999999996</v>
+      </c>
+      <c r="C23">
+        <v>95.505600000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>93.75</v>
+      </c>
+      <c r="B28">
+        <v>96.153800000000004</v>
+      </c>
+      <c r="C28">
+        <v>91.463399999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>91.875</v>
+      </c>
+      <c r="B30">
+        <v>87.654300000000006</v>
+      </c>
+      <c r="C30">
+        <v>96.202500000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>93.75</v>
+      </c>
+      <c r="B32">
+        <v>96.153800000000004</v>
+      </c>
+      <c r="C32">
+        <v>91.463399999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>91.875</v>
+      </c>
+      <c r="B34">
+        <v>92.5</v>
+      </c>
+      <c r="C34">
+        <v>91.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>85</v>
+      </c>
+      <c r="B36">
+        <v>87.951800000000006</v>
+      </c>
+      <c r="C36">
+        <v>81.818200000000004</v>
       </c>
     </row>
   </sheetData>
@@ -547,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0AFD8C-FA49-48EB-818D-05AC76878121}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -566,6 +1391,171 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>86.875</v>
+      </c>
+      <c r="B2">
+        <v>90.697699999999998</v>
+      </c>
+      <c r="C2">
+        <v>82.432400000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>92.5</v>
+      </c>
+      <c r="B4">
+        <v>89.0411</v>
+      </c>
+      <c r="C4">
+        <v>95.402299999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>88.125</v>
+      </c>
+      <c r="B6">
+        <v>89.534899999999993</v>
+      </c>
+      <c r="C6">
+        <v>86.486500000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>83.125</v>
+      </c>
+      <c r="B8">
+        <v>77.142899999999997</v>
+      </c>
+      <c r="C8">
+        <v>87.777799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>88.125</v>
+      </c>
+      <c r="B10">
+        <v>91.764700000000005</v>
+      </c>
+      <c r="C10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>83.75</v>
+      </c>
+      <c r="B15">
+        <v>83.333299999999994</v>
+      </c>
+      <c r="C15">
+        <v>84.210499999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>90.625</v>
+      </c>
+      <c r="B17">
+        <v>90.789500000000004</v>
+      </c>
+      <c r="C17">
+        <v>90.476200000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>93.125</v>
+      </c>
+      <c r="B19">
+        <v>94.366200000000006</v>
+      </c>
+      <c r="C19">
+        <v>92.134799999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>90</v>
+      </c>
+      <c r="B21">
+        <v>89.7727</v>
+      </c>
+      <c r="C21">
+        <v>90.277799999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>86.875</v>
+      </c>
+      <c r="B23">
+        <v>85.185199999999995</v>
+      </c>
+      <c r="C23">
+        <v>88.607600000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>90</v>
+      </c>
+      <c r="B28">
+        <v>96.551699999999997</v>
+      </c>
+      <c r="C28">
+        <v>82.191800000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>88.125</v>
+      </c>
+      <c r="B30">
+        <v>85.714299999999994</v>
+      </c>
+      <c r="C30">
+        <v>90.361400000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>87.5</v>
+      </c>
+      <c r="B32">
+        <v>84.615399999999994</v>
+      </c>
+      <c r="C32">
+        <v>90.243899999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>85</v>
+      </c>
+      <c r="B34">
+        <v>83.132499999999993</v>
+      </c>
+      <c r="C34">
+        <v>87.013000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>88.125</v>
+      </c>
+      <c r="B36">
+        <v>81.333299999999994</v>
+      </c>
+      <c r="C36">
+        <v>94.117599999999996</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/结果/DT分类/标准差/DT_DE_biaozhuncha.xlsx
+++ b/结果/DT分类/标准差/DT_DE_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\DT分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C98D690-6B04-49FD-8789-F0C39AE7F0FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03FBAD7-1CF6-4EA6-A1F5-056D47F0B68B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9252" yWindow="2748" windowWidth="19668" windowHeight="9708" firstSheet="2" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="824" firstSheet="1" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="DE_biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="DE_biaozhuncha_d3" sheetId="4" r:id="rId4"/>
     <sheet name="DE_biaozhuncha_d4" sheetId="5" r:id="rId5"/>
     <sheet name="DE_biaozhuncha_d5" sheetId="6" r:id="rId6"/>
+    <sheet name="DE_bzc_multi_attri" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +66,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -93,8 +103,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -411,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4741E87B-C3D3-4C4C-BF4E-36BCF345D7CA}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -593,6 +606,20 @@
       </c>
       <c r="C36">
         <v>91.953999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>AVERAGE(A2:A36)</f>
+        <v>89.375</v>
+      </c>
+      <c r="B37" s="1">
+        <f>AVERAGE(B2:B36)</f>
+        <v>90.489086666666651</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C2:C36)</f>
+        <v>88.23015333333332</v>
       </c>
     </row>
   </sheetData>
@@ -604,10 +631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CD7CAD-17A7-405B-B225-B1C1201D0FB3}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -786,6 +813,20 @@
       </c>
       <c r="C36">
         <v>83.950599999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>AVERAGE(A2:A36)</f>
+        <v>84.958333333333329</v>
+      </c>
+      <c r="B37" s="1">
+        <f>AVERAGE(B2:B36)</f>
+        <v>84.814493333333331</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C2:C36)</f>
+        <v>85.240173333333345</v>
       </c>
     </row>
   </sheetData>
@@ -796,10 +837,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C4E035-F9D2-421B-B7B5-F0F10728D5DC}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -978,6 +1019,20 @@
       </c>
       <c r="C36">
         <v>92.207800000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>AVERAGE(A2:A36)</f>
+        <v>92.666666666666671</v>
+      </c>
+      <c r="B37" s="1">
+        <f>AVERAGE(B2:B36)</f>
+        <v>93.811400000000006</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C2:C36)</f>
+        <v>91.531686666666658</v>
       </c>
     </row>
   </sheetData>
@@ -988,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7065BF2C-2190-4AC1-9863-A73DB651DEB7}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1170,6 +1225,20 @@
       </c>
       <c r="C36">
         <v>92.045500000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>AVERAGE(A2:A36)</f>
+        <v>94.166666666666671</v>
+      </c>
+      <c r="B37" s="1">
+        <f>AVERAGE(B2:B36)</f>
+        <v>93.735406666666663</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C2:C36)</f>
+        <v>94.70105333333332</v>
       </c>
     </row>
   </sheetData>
@@ -1180,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D226E5F6-9744-4BCE-BA8C-130D2D921F00}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1362,6 +1431,20 @@
       </c>
       <c r="C36">
         <v>81.818200000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>AVERAGE(A2:A36)</f>
+        <v>92</v>
+      </c>
+      <c r="B37" s="1">
+        <f>AVERAGE(B2:B36)</f>
+        <v>92.503433333333334</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C2:C36)</f>
+        <v>91.386613333333344</v>
       </c>
     </row>
   </sheetData>
@@ -1372,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0AFD8C-FA49-48EB-818D-05AC76878121}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1556,8 +1639,37 @@
         <v>94.117599999999996</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>AVERAGE(A2:A36)</f>
+        <v>88.125</v>
+      </c>
+      <c r="B37" s="1">
+        <f>AVERAGE(B2:B36)</f>
+        <v>87.531693333333322</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C2:C36)</f>
+        <v>88.382239999999982</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5B813C-55A7-4DAD-AA07-2F49281B2BD0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/结果/DT分类/标准差/DT_DE_biaozhuncha.xlsx
+++ b/结果/DT分类/标准差/DT_DE_biaozhuncha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\DT分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03FBAD7-1CF6-4EA6-A1F5-056D47F0B68B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C6F08E-DAD4-4322-8BB8-0B05D3B192F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="824" firstSheet="1" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="824" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="DE_biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1661,15 +1673,207 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5B813C-55A7-4DAD-AA07-2F49281B2BD0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>97.5</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>94.736800000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>93.125</v>
+      </c>
+      <c r="B4">
+        <v>92.307699999999997</v>
+      </c>
+      <c r="C4">
+        <v>93.684200000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>97.5</v>
+      </c>
+      <c r="B6">
+        <v>96.341499999999996</v>
+      </c>
+      <c r="C6">
+        <v>98.7179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>95</v>
+      </c>
+      <c r="B8">
+        <v>97.5</v>
+      </c>
+      <c r="C8">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>96.875</v>
+      </c>
+      <c r="B10">
+        <v>96.629199999999997</v>
+      </c>
+      <c r="C10">
+        <v>97.183099999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>95</v>
+      </c>
+      <c r="B15">
+        <v>98.75</v>
+      </c>
+      <c r="C15">
+        <v>91.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>94.375</v>
+      </c>
+      <c r="B17">
+        <v>92.405100000000004</v>
+      </c>
+      <c r="C17">
+        <v>96.296300000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>93.75</v>
+      </c>
+      <c r="B19">
+        <v>94.186000000000007</v>
+      </c>
+      <c r="C19">
+        <v>93.243200000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>96.875</v>
+      </c>
+      <c r="B21">
+        <v>96.103899999999996</v>
+      </c>
+      <c r="C21">
+        <v>97.590400000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>98.125</v>
+      </c>
+      <c r="B23">
+        <v>97.435900000000004</v>
+      </c>
+      <c r="C23">
+        <v>98.780500000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>96.25</v>
+      </c>
+      <c r="B28">
+        <v>97.872299999999996</v>
+      </c>
+      <c r="C28">
+        <v>93.939400000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>96.25</v>
+      </c>
+      <c r="B30">
+        <v>97.014899999999997</v>
+      </c>
+      <c r="C30">
+        <v>95.698899999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>98.125</v>
+      </c>
+      <c r="B32">
+        <v>97.435900000000004</v>
+      </c>
+      <c r="C32">
+        <v>98.780500000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>97.5</v>
+      </c>
+      <c r="B34">
+        <v>97.368399999999994</v>
+      </c>
+      <c r="C34">
+        <v>97.619</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>96.875</v>
+      </c>
+      <c r="B36">
+        <v>97.647099999999995</v>
+      </c>
+      <c r="C36">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>AVERAGE(A2:A36)</f>
+        <v>96.208333333333329</v>
+      </c>
+      <c r="B37" s="1">
+        <f>AVERAGE(B2:B36)</f>
+        <v>96.599859999999993</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C2:C36)</f>
+        <v>95.734680000000012</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/结果/DT分类/标准差/DT_DE_biaozhuncha.xlsx
+++ b/结果/DT分类/标准差/DT_DE_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\DT分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C6F08E-DAD4-4322-8BB8-0B05D3B192F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A31EA6-1909-4E2A-8DCA-9887EA9D6CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="824" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="3612" yWindow="2676" windowWidth="19668" windowHeight="9792" tabRatio="824" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="DE_biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -1673,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5B813C-55A7-4DAD-AA07-2F49281B2BD0}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1758,7 +1758,7 @@
         <v>91.25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>94.375</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>96.296300000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>93.75</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>93.243200000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>96.875</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>97.590400000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>98.125</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>98.780500000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>96.25</v>
       </c>
@@ -1812,8 +1812,11 @@
       <c r="C28">
         <v>93.939400000000006</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>96.25</v>
       </c>
@@ -1824,7 +1827,7 @@
         <v>95.698899999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>98.125</v>
       </c>

--- a/结果/DT分类/标准差/DT_DE_biaozhuncha.xlsx
+++ b/结果/DT分类/标准差/DT_DE_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\DT分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A31EA6-1909-4E2A-8DCA-9887EA9D6CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3B9144-0E9C-49AB-A7C1-898DE6B909D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3612" yWindow="2676" windowWidth="19668" windowHeight="9792" tabRatio="824" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="12756" yWindow="0" windowWidth="13620" windowHeight="12360" tabRatio="824" firstSheet="4" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="DE_biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -1675,7 +1675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5B813C-55A7-4DAD-AA07-2F49281B2BD0}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G19" sqref="G19:I28"/>
     </sheetView>
   </sheetViews>
